--- a/Nest Sites.xlsx
+++ b/Nest Sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2923156b_student_gla_ac_uk/Documents/MScR/Data_Analysis/Files for GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC1048AAB19C76405BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B78228-5D22-421A-92A5-230BF1483848}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC1048AAB19C76405BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87AC036F-9D4F-4110-AEA5-C78E1E432028}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,114 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={DBB55D9C-3630-4AAA-BE6A-5EE4E02E8E6A}</author>
-    <author>tc={0E21594F-6597-4A2C-B50C-77A456915520}</author>
-    <author>tc={D4100B28-0122-4D58-BF5F-F211CB1711C0}</author>
-    <author>tc={23AE3637-B064-4976-8920-03CA95454177}</author>
-    <author>tc={08955DB2-8769-450B-8EDA-2C03C2DEA550}</author>
-    <author>tc={E90BCB5F-8C22-4236-B224-3C3B9FAC1F6B}</author>
-    <author>tc={C5194B84-905D-495B-A261-F3D7657609BE}</author>
-    <author>tc={A1277C55-781D-40D4-93EE-EAD06E55FEC1}</author>
-    <author>tc={F3D04D8F-987B-41AF-A997-5CF3208B2BED}</author>
-    <author>tc={1B10FE43-DF94-47ED-ADB3-C7A30E9B8EA1}</author>
-    <author>tc={9820BD32-0909-448B-B222-FA0E2A8171A5}</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{DBB55D9C-3630-4AAA-BE6A-5EE4E02E8E6A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    But this was a confirmed failure by researchers - relaid in July but no sign at end of July</t>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{0E21594F-6597-4A2C-B50C-77A456915520}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Failed as died</t>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="2" shapeId="0" xr:uid="{D4100B28-0122-4D58-BF5F-F211CB1711C0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Completely site faithful to site 2 years earlier - nest barely moved</t>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="3" shapeId="0" xr:uid="{23AE3637-B064-4976-8920-03CA95454177}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    On a factory in the countryside or similar, but factories, housing estates etc. Considered by Copernicus as 'built up' ie urban</t>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="4" shapeId="0" xr:uid="{08955DB2-8769-450B-8EDA-2C03C2DEA550}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tagged on 7th July so hard to tell, but poss Balgray Bond in Barrmill, suburban. Next year's nesting site may help confirm this</t>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="5" shapeId="0" xr:uid="{E90BCB5F-8C22-4236-B224-3C3B9FAC1F6B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    nestR found success but the reality was that she failed but continued to visit the nest</t>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="6" shapeId="0" xr:uid="{C5194B84-905D-495B-A261-F3D7657609BE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    No visible attempt</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="7" shapeId="0" xr:uid="{A1277C55-781D-40D4-93EE-EAD06E55FEC1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Research team said not nesting in 2018</t>
-      </text>
-    </comment>
-    <comment ref="F30" authorId="8" shapeId="0" xr:uid="{F3D04D8F-987B-41AF-A997-5CF3208B2BED}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    On nest when caught, abandoned. Tag-induced abandonment possible - see Ch1 discussion notes</t>
-      </text>
-    </comment>
-    <comment ref="C32" authorId="9" shapeId="0" xr:uid="{1B10FE43-DF94-47ED-ADB3-C7A30E9B8EA1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Some tag error but seemed to fail on Isle of Pladda</t>
-      </text>
-    </comment>
-    <comment ref="C33" authorId="10" shapeId="0" xr:uid="{9820BD32-0909-448B-B222-FA0E2A8171A5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not 100% certain - to speak to Ruedi</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="66">
   <si>
@@ -337,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,12 +244,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -481,19 +367,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -519,7 +396,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,9 +424,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Florence Blackbourn (PGR)" id="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" userId="S::2923156B@student.gla.ac.uk::b1b50d3b-c8b0-4d65-a7c2-d883fbb52db3" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,50 +688,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C2" dT="2024-04-05T09:28:10.34" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{DBB55D9C-3630-4AAA-BE6A-5EE4E02E8E6A}">
-    <text>But this was a confirmed failure by researchers - relaid in July but no sign at end of July</text>
-  </threadedComment>
-  <threadedComment ref="C9" dT="2024-07-21T13:21:30.63" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{0E21594F-6597-4A2C-B50C-77A456915520}">
-    <text>Failed as died</text>
-  </threadedComment>
-  <threadedComment ref="E16" dT="2024-04-15T10:16:46.78" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{D4100B28-0122-4D58-BF5F-F211CB1711C0}">
-    <text>Completely site faithful to site 2 years earlier - nest barely moved</text>
-  </threadedComment>
-  <threadedComment ref="D18" dT="2024-03-27T14:29:24.26" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{23AE3637-B064-4976-8920-03CA95454177}">
-    <text>On a factory in the countryside or similar, but factories, housing estates etc. Considered by Copernicus as 'built up' ie urban</text>
-  </threadedComment>
-  <threadedComment ref="C19" dT="2024-03-27T14:35:58.85" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{08955DB2-8769-450B-8EDA-2C03C2DEA550}">
-    <text>Tagged on 7th July so hard to tell, but poss Balgray Bond in Barrmill, suburban. Next year's nesting site may help confirm this</text>
-  </threadedComment>
-  <threadedComment ref="C25" dT="2024-04-17T14:50:10.49" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{E90BCB5F-8C22-4236-B224-3C3B9FAC1F6B}">
-    <text>nestR found success but the reality was that she failed but continued to visit the nest</text>
-  </threadedComment>
-  <threadedComment ref="C27" dT="2024-03-28T11:55:12.32" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{C5194B84-905D-495B-A261-F3D7657609BE}">
-    <text>No visible attempt</text>
-  </threadedComment>
-  <threadedComment ref="B30" dT="2024-03-28T12:29:23.01" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{A1277C55-781D-40D4-93EE-EAD06E55FEC1}">
-    <text>Research team said not nesting in 2018</text>
-  </threadedComment>
-  <threadedComment ref="F30" dT="2024-04-17T16:42:00.96" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{F3D04D8F-987B-41AF-A997-5CF3208B2BED}">
-    <text>On nest when caught, abandoned. Tag-induced abandonment possible - see Ch1 discussion notes</text>
-  </threadedComment>
-  <threadedComment ref="C32" dT="2024-04-29T14:49:42.68" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{1B10FE43-DF94-47ED-ADB3-C7A30E9B8EA1}">
-    <text>Some tag error but seemed to fail on Isle of Pladda</text>
-  </threadedComment>
-  <threadedComment ref="C33" dT="2024-03-28T14:11:16.86" personId="{3C92DDF5-1C99-4257-95B9-2702ECAD8E40}" id="{9820BD32-0909-448B-B222-FA0E2A8171A5}">
-    <text>Not 100% certain - to speak to Ruedi</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,45 +750,45 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="33">
         <v>-4.7531920000000003</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="33">
         <v>55.947470000000003</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2017</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="33">
         <v>-4.7522219999999997</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="33">
         <v>55.947879999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="36"/>
       <c r="B4">
         <v>2018</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -954,80 +800,80 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <v>-4.7509779999999999</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="33">
         <v>55.946800000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11">
+      <c r="A5" s="35"/>
+      <c r="B5" s="8">
         <v>2019</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <v>-4.7508929999999996</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="33">
         <v>55.945990000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>2017</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="33">
         <v>-4.7508929999999996</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="33">
         <v>55.945990000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>2017</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G7">
@@ -1038,44 +884,44 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2017</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11">
+      <c r="A9" s="35"/>
+      <c r="B9" s="8">
         <v>2018</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G9">
@@ -1086,66 +932,66 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2017</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11">
+      <c r="A11" s="35"/>
+      <c r="B11" s="8">
         <v>2018</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2017</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G12">
@@ -1156,20 +1002,20 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11">
+      <c r="A13" s="35"/>
+      <c r="B13" s="8">
         <v>2018</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G13">
@@ -1180,22 +1026,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>2017</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14">
@@ -1206,11 +1052,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="36"/>
       <c r="B15">
         <v>2018</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
@@ -1227,20 +1073,20 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11">
+      <c r="A16" s="35"/>
+      <c r="B16" s="8">
         <v>2019</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G16">
@@ -1251,22 +1097,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>2017</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G17">
@@ -1277,22 +1123,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>2017</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G18">
@@ -1303,44 +1149,44 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>2017</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11">
+      <c r="A20" s="35"/>
+      <c r="B20" s="8">
         <v>2018</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G20">
@@ -1351,74 +1197,74 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>2017</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>2018</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G24">
@@ -1429,22 +1275,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>2018</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G25">
@@ -1455,22 +1301,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>2018</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G26">
@@ -1481,42 +1327,42 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11">
+      <c r="A27" s="35"/>
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="C27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>2018</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G28">
@@ -1527,20 +1373,20 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11">
+      <c r="A29" s="35"/>
+      <c r="B29" s="8">
         <v>2019</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G29">
@@ -1551,35 +1397,35 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>2018</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="36"/>
       <c r="B31">
         <v>2019</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
@@ -1596,20 +1442,20 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11">
+      <c r="A32" s="35"/>
+      <c r="B32" s="8">
         <v>2020</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G32">
@@ -1620,22 +1466,22 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>2018</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G33">
@@ -1646,17 +1492,17 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="36"/>
       <c r="B34">
         <v>2019</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
@@ -1670,17 +1516,17 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="36"/>
       <c r="B35">
         <v>2020</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
@@ -1694,40 +1540,40 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11">
+      <c r="A36" s="35"/>
+      <c r="B36" s="8">
         <v>2021</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="11" t="s">
+      <c r="C36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>2018</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G37">
@@ -1738,140 +1584,140 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>2018</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="C38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="5" t="s">
+      <c r="G38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+      <c r="A39" s="36"/>
       <c r="B39">
         <v>2019</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="33" t="s">
+      <c r="C39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F39" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="5" t="s">
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11">
+      <c r="A40" s="35"/>
+      <c r="B40" s="8">
         <v>2020</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="33" t="s">
+      <c r="C40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="G40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>2018</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
+      <c r="C41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11">
+      <c r="A42" s="35"/>
+      <c r="B42" s="8">
         <v>2019</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="5" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>2019</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G43">
@@ -1882,66 +1728,66 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>2018</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="11" t="s">
+      <c r="D44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>2019</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="11" t="s">
+      <c r="C45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>2019</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G46">
@@ -1952,29 +1798,35 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11">
+      <c r="A47" s="35"/>
+      <c r="B47" s="8">
         <v>2020</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="11" t="s">
+      <c r="D47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -1982,14 +1834,7 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>